--- a/data_output/envlogger_names_221216.xlsx
+++ b/data_output/envlogger_names_221216.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elahi/github/envloggers/data_output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B13AC246-AE70-6F4F-B83C-4E60F27F8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="5000" windowWidth="30400" windowHeight="13320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="envlogger_names_2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>serial</t>
   </si>
@@ -77,13 +76,22 @@
   </si>
   <si>
     <t>q17</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +222,22 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,7 +540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -559,11 +583,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -592,11 +618,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -663,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -715,7 +743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -909,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,20 +945,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +968,11 @@
       <c r="C1" t="s">
         <v>16</v>
       </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -951,8 +982,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -962,8 +996,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -973,8 +1010,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -984,8 +1024,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -995,8 +1038,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1006,8 +1052,11 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1066,11 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1028,11 +1080,20 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+  <sortState ref="A2:C9">
     <sortCondition ref="C3:C9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>